--- a/Documents/CNN_layers.xlsx
+++ b/Documents/CNN_layers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Project\new_repo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22739D3-050D-48B6-9EE7-B383F0C5E918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55AFA44-7CAF-4EB7-B86F-8839A94D2A23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0212F96-D614-4608-90D4-7D27AA60162D}"/>
+    <workbookView minimized="1" xWindow="3180" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{B0212F96-D614-4608-90D4-7D27AA60162D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,14 +436,14 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
         <f>B2-C2+1</f>
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,14 +452,14 @@
       </c>
       <c r="B3">
         <f>D2</f>
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
         <f>B3/C3</f>
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,14 +468,14 @@
       </c>
       <c r="B4">
         <f>D3</f>
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
         <f>B4-C4+1</f>
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,14 +484,14 @@
       </c>
       <c r="B5">
         <f>D4</f>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
         <f>B5/C5</f>
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,14 +500,14 @@
       </c>
       <c r="B6">
         <f>D5</f>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
         <f>B6-C6+1</f>
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,14 +516,14 @@
       </c>
       <c r="B7">
         <f>D6</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
         <f>B7/C7</f>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/CNN_layers.xlsx
+++ b/Documents/CNN_layers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Project\new_repo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55AFA44-7CAF-4EB7-B86F-8839A94D2A23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D626FBF6-2D5E-47E9-B1AF-6936F8B69AD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3180" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{B0212F96-D614-4608-90D4-7D27AA60162D}"/>
+    <workbookView xWindow="33090" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{B0212F96-D614-4608-90D4-7D27AA60162D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,14 +436,14 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
         <f>B2-C2+1</f>
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,14 +452,14 @@
       </c>
       <c r="B3">
         <f>D2</f>
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
         <f>B3/C3</f>
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,14 +468,14 @@
       </c>
       <c r="B4">
         <f>D3</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
         <f>B4-C4+1</f>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,14 +484,14 @@
       </c>
       <c r="B5">
         <f>D4</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
         <f>B5/C5</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,14 +500,14 @@
       </c>
       <c r="B6">
         <f>D5</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
         <f>B6-C6+1</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,14 +516,14 @@
       </c>
       <c r="B7">
         <f>D6</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
         <f>B7/C7</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/CNN_layers.xlsx
+++ b/Documents/CNN_layers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Project\new_repo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D626FBF6-2D5E-47E9-B1AF-6936F8B69AD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4354E34C-9C80-45DF-87AC-AC00E999E3FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33090" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{B0212F96-D614-4608-90D4-7D27AA60162D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0212F96-D614-4608-90D4-7D27AA60162D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,6 @@
     <t>pool1</t>
   </si>
   <si>
-    <t>conv2</t>
-  </si>
-  <si>
-    <t>pool2</t>
-  </si>
-  <si>
     <t>in_dim</t>
   </si>
   <si>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t>out_dim</t>
+  </si>
+  <si>
+    <t>fc0</t>
+  </si>
+  <si>
+    <t>fc1</t>
   </si>
 </sst>
 </file>
@@ -76,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,27 +422,27 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="B2:D7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>54</v>
       </c>
       <c r="C2">
@@ -496,34 +503,34 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <f>D5</f>
-        <v>12</v>
+        <f>D5*D5</f>
+        <v>144</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <f>B6-C6+1</f>
-        <v>10</v>
+        <f>B6*D6</f>
+        <v>7200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <f>D6</f>
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <f>B7*D7</f>
+        <v>500</v>
+      </c>
+      <c r="D7" s="1">
         <v>10</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <f>B7/C7</f>
-        <v>5</v>
       </c>
     </row>
   </sheetData>
